--- a/xlsx/世界語_intext.xlsx
+++ b/xlsx/世界語_intext.xlsx
@@ -5960,7 +5960,7 @@
         <v>224</v>
       </c>
       <c r="G117" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -5989,7 +5989,7 @@
         <v>226</v>
       </c>
       <c r="G118" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -6076,7 +6076,7 @@
         <v>232</v>
       </c>
       <c r="G121" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
